--- a/key-documents/R-chunks-chapter-codes.xlsx
+++ b/key-documents/R-chunks-chapter-codes.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://birdlife-my.sharepoint.com/personal/jonathan_handley_birdlife_org/Documents/JonoHandley_BirdLife/PROJECTS/Marine Toolkit/GitHub_MarineToolkit/MarMeCo-Toolkit-R-Beta/key-documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_F25DC773A252ABDACC10484D015C6DC65ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BA5C01A-6572-4693-9CA2-A367989E560A}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="11_F25DC773A252ABDACC10484D015C6DC65ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83D0E806-0D7F-4A9E-9BF7-B7A5E6C84EA9}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Theme</t>
   </si>
@@ -49,6 +60,45 @@
   </si>
   <si>
     <t>Code-chunk-code-leading-abbreviation</t>
+  </si>
+  <si>
+    <t>Tracking data visualisation</t>
+  </si>
+  <si>
+    <t>rmd file name</t>
+  </si>
+  <si>
+    <t>03-TrackingData-Visualisation</t>
+  </si>
+  <si>
+    <t>track-vis</t>
+  </si>
+  <si>
+    <t>introduction</t>
+  </si>
+  <si>
+    <t>swe1</t>
+  </si>
+  <si>
+    <t>swe2</t>
+  </si>
+  <si>
+    <t>swe3</t>
+  </si>
+  <si>
+    <t>single colony</t>
+  </si>
+  <si>
+    <t>multiple colonies</t>
+  </si>
+  <si>
+    <t>background raster single</t>
+  </si>
+  <si>
+    <t>background raster multi</t>
+  </si>
+  <si>
+    <t>swe4</t>
   </si>
 </sst>
 </file>
@@ -101,6 +151,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,20 +420,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,24 +447,73 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/key-documents/R-chunks-chapter-codes.xlsx
+++ b/key-documents/R-chunks-chapter-codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://birdlife-my.sharepoint.com/personal/jonathan_handley_birdlife_org/Documents/JonoHandley_BirdLife/PROJECTS/Marine Toolkit/GitHub_MarineToolkit/MarMeCo-Toolkit-R-Beta/key-documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="11_F25DC773A252ABDACC10484D015C6DC65ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83D0E806-0D7F-4A9E-9BF7-B7A5E6C84EA9}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_F25DC773A252ABDACC10484D015C6DC65ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{342B6B46-5C7A-4CE5-938C-5F6CC6D9435F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Theme</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>swe4</t>
+  </si>
+  <si>
+    <t>Tracking data intro</t>
+  </si>
+  <si>
+    <t>track-intro</t>
+  </si>
+  <si>
+    <t>Tracking data sampling strategy</t>
+  </si>
+  <si>
+    <t>track-sample</t>
   </si>
 </sst>
 </file>
@@ -151,10 +163,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -516,6 +524,34 @@
         <v>10</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/key-documents/R-chunks-chapter-codes.xlsx
+++ b/key-documents/R-chunks-chapter-codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://birdlife-my.sharepoint.com/personal/jonathan_handley_birdlife_org/Documents/JonoHandley_BirdLife/PROJECTS/Marine Toolkit/GitHub_MarineToolkit/MarMeCo-Toolkit-R-Beta/key-documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_F25DC773A252ABDACC10484D015C6DC65ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{342B6B46-5C7A-4CE5-938C-5F6CC6D9435F}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="11_F25DC773A252ABDACC10484D015C6DC65ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4FDF48C-8ECF-49BD-A6ED-D16BF4B80DB1}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Theme</t>
   </si>
@@ -68,9 +68,6 @@
     <t>rmd file name</t>
   </si>
   <si>
-    <t>03-TrackingData-Visualisation</t>
-  </si>
-  <si>
     <t>track-vis</t>
   </si>
   <si>
@@ -111,6 +108,15 @@
   </si>
   <si>
     <t>track-sample</t>
+  </si>
+  <si>
+    <t>03-TrackingData-Visualisation-AllTracks</t>
+  </si>
+  <si>
+    <t>track-vis-ind</t>
+  </si>
+  <si>
+    <t>04-TrackingData-Visualisation-IndividualTrips</t>
   </si>
 </sst>
 </file>
@@ -428,21 +434,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,55 +465,55 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -518,41 +524,59 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>